--- a/Output/tools_top_10_final.xlsx
+++ b/Output/tools_top_10_final.xlsx
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1836,7 +1836,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2087,7 +2087,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2107,12 +2107,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Beck Anxiety Inventory (BAI)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Beck Anxiety Inventory (BAI)</t>
+          <t>Depression Anxiety Stress Scale (DASS-21)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Depression Anxiety Stress Scale (DASS-21)</t>
+          <t>General Health Questionnaire-28 (GHQ-28)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>General Health Questionnaire-28 (GHQ-28)</t>
+          <t>Hospital Anxiety and Depression Scale (HADS)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hospital Anxiety and Depression Scale (HADS)</t>
+          <t>Spielberger’s State-Trait Anxiety Inventory (STAI)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Spielberger’s State-Trait Anxiety Inventory (STAI)</t>
+          <t>Structured Clinical Interview for DSM-IV (SCID IV)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Structured Clinical Interview for DSM-IV (SCID IV)</t>
+          <t>Symptom Checklist-90-R (SCL-90-R)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Symptom Checklist-90-R (SCL-90-R)</t>
+          <t>others</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2261,18 +2261,18 @@
         </is>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Beck Anxiety Inventory (BAI)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Beck Anxiety Inventory (BAI)</t>
+          <t>Depression Anxiety Stress Scale (DASS-21)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Depression Anxiety Stress Scale (DASS-21)</t>
+          <t>General Health Questionnaire-12 (GHQ-12)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>General Health Questionnaire-12 (GHQ-12)</t>
+          <t>General Health Questionnaire-28 (GHQ-28)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>General Health Questionnaire-28 (GHQ-28)</t>
+          <t>MINI International Neuropsychiatric Interview for Children and Adolescents (MINI-Kid)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MINI International Neuropsychiatric Interview for Children and Adolescents (MINI-Kid)</t>
+          <t>Revised Children’s Manifest Anxiety Scale (RCMAS)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Revised Children’s Manifest Anxiety Scale (RCMAS)</t>
+          <t>Spielberger’s State-Trait Anxiety Inventory (STAI)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Spielberger’s State-Trait Anxiety Inventory (STAI)</t>
+          <t>Structured Clinical Interview for DSM-IV (SCID IV)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Structured Clinical Interview for DSM-IV (SCID IV)</t>
+          <t>others</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2441,18 +2441,18 @@
         </is>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Hospital Anxiety and Depression Scale (HADS)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hospital Anxiety and Depression Scale (HADS)</t>
+          <t>Spielberger’s State-Trait Anxiety Inventory (STAI)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Spielberger’s State-Trait Anxiety Inventory (STAI)</t>
+          <t>others</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2507,7 +2507,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2527,7 +2527,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2541,26 +2541,6 @@
         </is>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>others</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>anxiety</t>
-        </is>
-      </c>
-      <c r="D36">
         <v>3</v>
       </c>
     </row>
